--- a/Database/Rahul/Finalise_Databas_Details_Excel_Sheet_Fleet_Management_Group-02.xlsx
+++ b/Database/Rahul/Finalise_Databas_Details_Excel_Sheet_Fleet_Management_Group-02.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>sr no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">availablity </t>
   </si>
 </sst>
 </file>
@@ -740,17 +743,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -845,42 +842,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
@@ -897,6 +858,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1865,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,149 +1907,149 @@
     </row>
     <row r="5" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="67"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="S6" s="7"/>
     </row>
     <row r="7" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="7"/>
     </row>
     <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I11" s="1"/>
@@ -2064,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,307 +2077,307 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="6:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="19"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="20"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="6:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="19"/>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="19"/>
-      <c r="G7" s="33">
+      <c r="F7" s="17"/>
+      <c r="G7" s="31">
         <v>101</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="24" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>15</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="24">
         <v>4.5</v>
       </c>
-      <c r="L7" s="20"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="19"/>
-      <c r="G8" s="35">
+      <c r="F8" s="17"/>
+      <c r="G8" s="33">
         <v>102</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="26">
         <v>18</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="27">
         <v>4.8</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="19"/>
-      <c r="G9" s="35">
+      <c r="F9" s="17"/>
+      <c r="G9" s="33">
         <v>103</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="27" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <v>16</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <v>4</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="19"/>
-      <c r="G10" s="35">
+      <c r="F10" s="17"/>
+      <c r="G10" s="33">
         <v>104</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="27" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <v>16.5</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="27">
         <v>3.5</v>
       </c>
-      <c r="L10" s="20"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="19"/>
-      <c r="G11" s="35">
+      <c r="F11" s="17"/>
+      <c r="G11" s="33">
         <v>105</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="26">
         <v>19</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="27">
         <v>3.2</v>
       </c>
-      <c r="L11" s="20"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="19"/>
-      <c r="G12" s="35">
+      <c r="F12" s="17"/>
+      <c r="G12" s="33">
         <v>106</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="27" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="26">
         <v>15</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="27">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="19"/>
-      <c r="G13" s="35">
+      <c r="F13" s="17"/>
+      <c r="G13" s="33">
         <v>107</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="27" t="s">
+      <c r="H13" s="34"/>
+      <c r="I13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <v>16</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="27">
         <v>4.2</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="19"/>
-      <c r="G14" s="35">
+      <c r="F14" s="17"/>
+      <c r="G14" s="33">
         <v>108</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="27" t="s">
+      <c r="H14" s="34"/>
+      <c r="I14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="26">
         <v>15</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="27">
         <v>4.3</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="19"/>
-      <c r="G15" s="35">
+      <c r="F15" s="17"/>
+      <c r="G15" s="33">
         <v>109</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="34"/>
+      <c r="I15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="26">
         <v>18</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="27">
         <v>4.5</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="19"/>
-      <c r="G16" s="35">
+      <c r="F16" s="17"/>
+      <c r="G16" s="33">
         <v>110</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="27" t="s">
+      <c r="H16" s="34"/>
+      <c r="I16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="26">
         <v>20.3</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="27">
         <v>3.4</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="19"/>
-      <c r="G17" s="35">
+      <c r="F17" s="17"/>
+      <c r="G17" s="33">
         <v>111</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="27" t="s">
+      <c r="H17" s="34"/>
+      <c r="I17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="26">
         <v>18</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <v>4.2</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="19"/>
-      <c r="G18" s="35">
+      <c r="F18" s="17"/>
+      <c r="G18" s="33">
         <v>112</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="27" t="s">
+      <c r="H18" s="34"/>
+      <c r="I18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="26">
         <v>17</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="27">
         <v>3.6</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="19"/>
-      <c r="G19" s="35">
+      <c r="F19" s="17"/>
+      <c r="G19" s="33">
         <v>113</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="27" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="26">
         <v>21</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="27">
         <v>3.1</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="6:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="19"/>
-      <c r="G20" s="35">
+      <c r="F20" s="17"/>
+      <c r="G20" s="33">
         <v>114</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="27" t="s">
+      <c r="H20" s="34"/>
+      <c r="I20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="26">
         <v>15.5</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="27">
         <v>3.6</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="6:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="19"/>
-      <c r="G21" s="37">
+      <c r="F21" s="17"/>
+      <c r="G21" s="35">
         <v>115</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="30" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="29">
         <v>16</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="30">
         <v>4.8</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2388,10 +2391,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:H6"/>
+  <dimension ref="D3:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,40 +2406,45 @@
   <sheetData>
     <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="40"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="44" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2462,108 +2470,108 @@
   <sheetData>
     <row r="4" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="5:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="47"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="Q6" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="54" t="s">
+      <c r="R6" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="48"/>
+      <c r="S6" s="46"/>
     </row>
     <row r="7" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="M7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="50" t="s">
+      <c r="O7" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50" t="s">
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R7" s="49" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2580,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K3:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,282 +2601,282 @@
   </cols>
   <sheetData>
     <row r="3" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="19"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="20"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="67"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69" t="s">
+      <c r="K5" s="53"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="20"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K6" s="67"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="70" t="s">
+      <c r="K6" s="53"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="20"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K7" s="67"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73" t="s">
+      <c r="K7" s="53"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="20"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="67"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="75" t="s">
+      <c r="K8" s="53"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="20"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L9" s="19"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="20"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L10" s="19"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="20"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="19"/>
-      <c r="M11" s="76" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="N11" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="20"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L12" s="19"/>
-      <c r="M12" s="33">
+      <c r="L12" s="17"/>
+      <c r="M12" s="31">
         <v>1</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="20"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L13" s="19"/>
-      <c r="M13" s="35">
+      <c r="L13" s="17"/>
+      <c r="M13" s="33">
         <v>2</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="36"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="20"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L14" s="19"/>
-      <c r="M14" s="35">
+      <c r="L14" s="17"/>
+      <c r="M14" s="33">
         <v>3</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="36"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="20"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L15" s="19"/>
-      <c r="M15" s="35">
+      <c r="L15" s="17"/>
+      <c r="M15" s="33">
         <v>4</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="N15" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="20"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L16" s="19"/>
-      <c r="M16" s="35">
+      <c r="L16" s="17"/>
+      <c r="M16" s="33">
         <v>5</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="N16" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="20"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L17" s="19"/>
-      <c r="M17" s="35">
+      <c r="L17" s="17"/>
+      <c r="M17" s="33">
         <v>6</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="O17" s="36"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="20"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L18" s="19"/>
-      <c r="M18" s="35">
+      <c r="L18" s="17"/>
+      <c r="M18" s="33">
         <v>7</v>
       </c>
-      <c r="N18" s="36" t="s">
+      <c r="N18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="36"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="20"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="19"/>
-      <c r="M19" s="35">
+      <c r="L19" s="17"/>
+      <c r="M19" s="33">
         <v>8</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="36"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="20"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L20" s="19"/>
-      <c r="M20" s="35">
+      <c r="L20" s="17"/>
+      <c r="M20" s="33">
         <v>9</v>
       </c>
-      <c r="N20" s="36" t="s">
+      <c r="N20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="36"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="20"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L21" s="19"/>
-      <c r="M21" s="35">
+      <c r="L21" s="17"/>
+      <c r="M21" s="33">
         <v>10</v>
       </c>
-      <c r="N21" s="36" t="s">
+      <c r="N21" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="34">
         <v>10.1</v>
       </c>
-      <c r="P21" s="29" t="s">
+      <c r="P21" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="20"/>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L22" s="19"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36">
+      <c r="L22" s="17"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34">
         <v>10.199999999999999</v>
       </c>
-      <c r="P22" s="29" t="s">
+      <c r="P22" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="Q22" s="20"/>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L23" s="19"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36">
+      <c r="L23" s="17"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34">
         <v>10.3</v>
       </c>
-      <c r="P23" s="29" t="s">
+      <c r="P23" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="20"/>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L24" s="19"/>
-      <c r="M24" s="35">
+      <c r="L24" s="17"/>
+      <c r="M24" s="33">
         <v>11</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="N24" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="O24" s="36"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="20"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="12:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="19"/>
-      <c r="M25" s="37">
+      <c r="L25" s="17"/>
+      <c r="M25" s="35">
         <v>12</v>
       </c>
-      <c r="N25" s="77" t="s">
+      <c r="N25" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="O25" s="77"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="20"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L26" s="19"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="20"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="18"/>
     </row>
     <row r="27" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Rahul/Finalise_Databas_Details_Excel_Sheet_Fleet_Management_Group-02.xlsx
+++ b/Database/Rahul/Finalise_Databas_Details_Excel_Sheet_Fleet_Management_Group-02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Database of Client Details" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>Id</t>
   </si>
@@ -152,15 +152,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Availability of Cars</t>
-  </si>
-  <si>
-    <t>Center Id</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
     <t>Office Customer Detail</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Add2</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -272,14 +260,38 @@
     <t>sr no</t>
   </si>
   <si>
-    <t xml:space="preserve">availablity </t>
+    <t>Center ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center Address </t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>{carname, carno,  cartype, seating_capacity, fuel_level, rateperday, rateperweek, ratepermonth,last_srvcdate}</t>
+  </si>
+  <si>
+    <t>[obj]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car_list </t>
+  </si>
+  <si>
+    <t>fuel_level = number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +353,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -356,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -634,90 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -734,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -816,24 +752,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -844,7 +762,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -858,6 +776,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -876,15 +800,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,12 +809,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1907,29 +1852,29 @@
     </row>
     <row r="5" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="67"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="63"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1981,7 +1926,7 @@
     </row>
     <row r="7" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -2087,13 +2032,13 @@
     </row>
     <row r="5" spans="6:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="17"/>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="6:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2391,67 +2336,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:H13"/>
+  <dimension ref="C2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="120.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="71" t="s">
+    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="47"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="47"/>
+      <c r="D5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="4:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="47"/>
+      <c r="D6" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>84</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="70"/>
+    </row>
+    <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="47"/>
+      <c r="D7" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="47"/>
+      <c r="D8" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="79"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="47"/>
+      <c r="D9" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="79"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="47"/>
+      <c r="D10" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="79"/>
+    </row>
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2459,120 +2468,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="5:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="39"/>
+    </row>
+    <row r="6" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="45"/>
-    </row>
-    <row r="6" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E6" s="50" t="s">
+      <c r="I6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="51" t="s">
+      <c r="J6" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="K6" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="L6" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="O6" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="P6" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="51" t="s">
+      <c r="Q6" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="R6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="F7" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" s="46"/>
-    </row>
-    <row r="7" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="48" t="s">
+      <c r="G7" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="O7" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>61</v>
+      <c r="R7" s="43" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K3:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -2610,84 +2617,84 @@
     </row>
     <row r="4" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L4" s="17"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="53"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55" t="s">
+      <c r="M5" s="48"/>
+      <c r="N5" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K6" s="47"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K7" s="47"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="47"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K6" s="53"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K7" s="53"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="53"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="11:17" x14ac:dyDescent="0.25">
       <c r="L9" s="17"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L10" s="17"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
       <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="11:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L11" s="17"/>
-      <c r="M11" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
+      <c r="M11" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="11:17" x14ac:dyDescent="0.25">
@@ -2696,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O12" s="32"/>
       <c r="P12" s="24"/>
@@ -2708,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O13" s="34"/>
       <c r="P13" s="27"/>
@@ -2720,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O14" s="34"/>
       <c r="P14" s="27"/>
@@ -2732,7 +2739,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O15" s="34"/>
       <c r="P15" s="27"/>
@@ -2744,7 +2751,7 @@
         <v>5</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="27"/>
@@ -2756,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="27"/>
@@ -2768,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="27"/>
@@ -2780,7 +2787,7 @@
         <v>8</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O19" s="34"/>
       <c r="P19" s="27"/>
@@ -2792,7 +2799,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="27"/>
@@ -2804,13 +2811,13 @@
         <v>10</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O21" s="34">
         <v>10.1</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="18"/>
     </row>
@@ -2822,7 +2829,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="18"/>
     </row>
@@ -2834,7 +2841,7 @@
         <v>10.3</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="18"/>
     </row>
@@ -2844,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O24" s="34"/>
       <c r="P24" s="27"/>
@@ -2855,19 +2862,19 @@
       <c r="M25" s="35">
         <v>12</v>
       </c>
-      <c r="N25" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" s="63"/>
+      <c r="N25" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="57"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L26" s="17"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
       <c r="Q26" s="18"/>
     </row>
     <row r="27" spans="12:17" x14ac:dyDescent="0.25">
